--- a/testTable.xlsx
+++ b/testTable.xlsx
@@ -586,7 +586,11 @@
         </is>
       </c>
       <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>Komarowasicz Julia</t>
+        </is>
+      </c>
       <c r="G6" s="3" t="n"/>
       <c r="H6" s="3" t="n"/>
       <c r="I6" s="3" t="n"/>
@@ -622,7 +626,11 @@
         </is>
       </c>
       <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Krainievi Illiaa</t>
+        </is>
+      </c>
       <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
       <c r="I7" s="3" t="n"/>
@@ -658,7 +666,11 @@
         </is>
       </c>
       <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>Krupoderipb Stanislav</t>
+        </is>
+      </c>
       <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
       <c r="I8" s="3" t="n"/>
@@ -694,7 +706,11 @@
         </is>
       </c>
       <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Miskyi Vym</t>
+        </is>
+      </c>
       <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
       <c r="I9" s="3" t="n"/>
@@ -732,7 +748,11 @@
         </is>
       </c>
       <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>Mosiichuk Viktor</t>
+        </is>
+      </c>
       <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
       <c r="I10" s="3" t="n"/>
@@ -768,7 +788,11 @@
         </is>
       </c>
       <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Perets Maksym</t>
+        </is>
+      </c>
       <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
       <c r="I11" s="3" t="n"/>
@@ -804,7 +828,11 @@
         </is>
       </c>
       <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>Romasenko Dmytro</t>
+        </is>
+      </c>
       <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
       <c r="I12" s="3" t="n"/>
@@ -840,7 +868,11 @@
         </is>
       </c>
       <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>Sahin Fatih</t>
+        </is>
+      </c>
       <c r="G13" s="3" t="n"/>
       <c r="H13" s="3" t="n"/>
       <c r="I13" s="3" t="n"/>
@@ -876,7 +908,11 @@
         </is>
       </c>
       <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>Sapehin Volodymyr</t>
+        </is>
+      </c>
       <c r="G14" s="3" t="n"/>
       <c r="H14" s="3" t="n"/>
       <c r="I14" s="3" t="n"/>
@@ -912,7 +948,11 @@
         </is>
       </c>
       <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>Shchur Andriik</t>
+        </is>
+      </c>
       <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
       <c r="I15" s="3" t="n"/>
@@ -948,7 +988,11 @@
         </is>
       </c>
       <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>Sorych  Andriy</t>
+        </is>
+      </c>
       <c r="G16" s="3" t="n"/>
       <c r="H16" s="3" t="n"/>
       <c r="I16" s="3" t="n"/>
@@ -984,7 +1028,11 @@
         </is>
       </c>
       <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>Sydorkina Annna</t>
+        </is>
+      </c>
       <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n"/>
       <c r="I17" s="3" t="n"/>
@@ -1020,7 +1068,11 @@
         </is>
       </c>
       <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>Tkchh Vitalii</t>
+        </is>
+      </c>
       <c r="G18" s="3" t="n"/>
       <c r="H18" s="3" t="n"/>
       <c r="I18" s="3" t="n"/>
@@ -1056,7 +1108,11 @@
         </is>
       </c>
       <c r="E19" s="3" t="n"/>
-      <c r="F19" s="3" t="n"/>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>Zinchenko Dmytro</t>
+        </is>
+      </c>
       <c r="G19" s="3" t="n"/>
       <c r="H19" s="3" t="n"/>
       <c r="I19" s="3" t="n"/>
